--- a/k8s/netapp/docs/K8s.xlsx
+++ b/k8s/netapp/docs/K8s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/MERN-ToDoApp/k8s/NetApp-LOD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/MERN-ToDoApp/k8s/netapp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC738EA-F96B-D24B-99EB-75AFB473A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624555DB-607F-094F-9565-90F946FD1B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="DockerHub" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,13 @@
     <sheet name="k8s" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="app_github_repo" localSheetId="1">'NetApp-LOD-k8s'!$B$1</definedName>
+    <definedName name="app_github_repo" localSheetId="1">'NetApp-LOD-k8s'!$C$1</definedName>
     <definedName name="app_github_repo">k8s!$B$1</definedName>
-    <definedName name="dr_app_namesace" localSheetId="1">'NetApp-LOD-k8s'!$B$3</definedName>
+    <definedName name="dr_app_namesace" localSheetId="1">'NetApp-LOD-k8s'!$C$3</definedName>
     <definedName name="dr_app_namesace">k8s!$B$3</definedName>
-    <definedName name="external_loadbalancer_namespace" localSheetId="1">'NetApp-LOD-k8s'!$B$4</definedName>
+    <definedName name="external_loadbalancer_namespace" localSheetId="1">'NetApp-LOD-k8s'!$C$4</definedName>
     <definedName name="external_loadbalancer_namespace">k8s!$B$4</definedName>
-    <definedName name="prd_app_namesace" localSheetId="1">'NetApp-LOD-k8s'!$B$2</definedName>
+    <definedName name="prd_app_namesace" localSheetId="1">'NetApp-LOD-k8s'!$C$2</definedName>
     <definedName name="prd_app_namesace">k8s!$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
   <si>
     <t>Step</t>
   </si>
@@ -287,7 +287,13 @@
     <t>todoapp</t>
   </si>
   <si>
-    <t>Name resolution for API URL</t>
+    <t>kubectl get all -n ingress-nginx</t>
+  </si>
+  <si>
+    <t>Verify NGINX Ingress Controller</t>
+  </si>
+  <si>
+    <t>Create an Ingress resource</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -509,13 +515,40 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -837,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680620-5D23-E942-99A4-0758EF20CA80}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -864,31 +897,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -896,45 +929,45 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="15" t="str">
         <f>"docker tag "&amp;B5&amp;" "&amp;C5</f>
         <v>docker tag frontend:latest mmodi/frontend:latest</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="15" t="str">
         <f>"docker push "&amp;C5</f>
         <v>docker push mmodi/frontend:latest</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -942,32 +975,32 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="15" t="str">
         <f>"docker tag "&amp;B10&amp;" "&amp;C10</f>
         <v>docker tag backend:latest mmodi/backend:latest</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="15" t="str">
         <f>"docker push "&amp;C10</f>
         <v>docker push mmodi/backend:latest</v>
@@ -989,283 +1022,302 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4454504A-6B2E-D14F-959F-4BC1D42689EE}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="B1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="27" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="27" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="23">
+        <v>1</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="24" t="str">
         <f>"git clone "&amp;app_github_repo</f>
         <v>git clone https://github.com/mrunal-modi/MERN-ToDoApp</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="23">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="24" t="str">
         <f>"kubectl create ns "&amp;prd_app_namesace</f>
         <v>kubectl create ns todoapp</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="23">
+        <v>1</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="25" t="str">
         <f>"kubectl apply -f database-pvc.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f database-pvc.yaml -n todoapp</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="23">
+        <v>2</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="25" t="str">
         <f>"kubectl apply -f database-deployment.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f database-deployment.yaml -n todoapp</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="23">
         <v>3</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="10" t="str">
+      <c r="C14" s="25" t="str">
         <f>"kubectl apply -f database-service.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f database-service.yaml -n todoapp</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="23">
+        <v>1</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="24" t="str">
         <f>"kubectl apply -f backend-env-configmap.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f backend-env-configmap.yaml -n todoapp</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>2</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="23">
+        <v>2</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10" t="str">
+      <c r="C18" s="25" t="str">
         <f>"kubectl apply -f backend-deployment.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f backend-deployment.yaml -n todoapp</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="23">
         <v>3</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="10" t="str">
+      <c r="C19" s="25" t="str">
         <f>"kubectl apply -f backend-service.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f backend-service.yaml -n todoapp</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="23">
+        <v>1</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C22" s="24" t="str">
         <f>"kubectl apply -f frontend-env-configmap.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f frontend-env-configmap.yaml -n todoapp</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>2</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C23" s="24" t="str">
         <f>"kubectl apply -f frontend-deployment.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f frontend-deployment.yaml -n todoapp</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="23">
         <v>3</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="10" t="str">
+      <c r="C24" s="25" t="str">
         <f>"kubectl apply -f frontend-service.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f frontend-service.yaml -n todoapp</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1</v>
+      <c r="B26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>1</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>1</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A28" s="23">
+        <v>2</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="24" t="str">
+        <f>"kubectl apply -f ingress.yaml -n "&amp;prd_app_namesace</f>
+        <v>kubectl apply -f ingress.yaml -n todoapp</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>3</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1273,12 +1325,13 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{48676282-4195-7449-A57E-01E752DA006D}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{48676282-4195-7449-A57E-01E752DA006D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1286,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EB6269-A009-C44B-BEE8-643A96FAB76F}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,11 +1383,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1372,11 +1425,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1484,11 +1537,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -1538,11 +1591,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -1592,11 +1645,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -1676,7 +1729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>7</v>
       </c>
@@ -1735,11 +1788,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">

--- a/k8s/netapp/docs/K8s.xlsx
+++ b/k8s/netapp/docs/K8s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/MERN-ToDoApp/k8s/netapp/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrunalmodi/Documents/GitHub/MERN-ToDoApp/k8s/netapp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624555DB-607F-094F-9565-90F946FD1B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A2CDBE-8AF6-FD4F-8543-9400D1D91E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
+    <workbookView xWindow="1980" yWindow="500" windowWidth="27020" windowHeight="16380" activeTab="1" xr2:uid="{2ECFAC80-5ECE-2645-9D11-250C06DCBDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="DockerHub" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
   <si>
     <t>Step</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>Create an Ingress resource</t>
+  </si>
+  <si>
+    <t>Change the ingress-nginx-controller-admission type from ClusterIP to LoadBalancer so that Metallb could assign an external IP to the NGINX controller.</t>
+  </si>
+  <si>
+    <t>Delete existing Ingress Controller</t>
+  </si>
+  <si>
+    <t>Install new Ingress Controller</t>
   </si>
 </sst>
 </file>
@@ -516,38 +525,38 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -918,10 +927,10 @@
       <c r="A5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="26" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -932,8 +941,8 @@
       <c r="A6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="15" t="s">
         <v>62</v>
       </c>
@@ -942,8 +951,8 @@
       <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="15" t="str">
         <f>"docker tag "&amp;B5&amp;" "&amp;C5</f>
         <v>docker tag frontend:latest mmodi/frontend:latest</v>
@@ -953,8 +962,8 @@
       <c r="A8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="15" t="str">
         <f>"docker push "&amp;C5</f>
         <v>docker push mmodi/frontend:latest</v>
@@ -964,10 +973,10 @@
       <c r="A10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="26" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -978,8 +987,8 @@
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="15" t="s">
         <v>63</v>
       </c>
@@ -988,8 +997,8 @@
       <c r="A12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="15" t="str">
         <f>"docker tag "&amp;B10&amp;" "&amp;C10</f>
         <v>docker tag backend:latest mmodi/backend:latest</v>
@@ -999,8 +1008,8 @@
       <c r="A13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="15" t="str">
         <f>"docker push "&amp;C10</f>
         <v>docker push mmodi/backend:latest</v>
@@ -1022,302 +1031,339 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4454504A-6B2E-D14F-959F-4BC1D42689EE}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
-        <v>1</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24" t="str">
+      <c r="C8" s="21" t="str">
         <f>"git clone "&amp;app_github_repo</f>
         <v>git clone https://github.com/mrunal-modi/MERN-ToDoApp</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <v>2</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="20">
+        <v>2</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="24" t="str">
+      <c r="C9" s="21" t="str">
         <f>"kubectl create ns "&amp;prd_app_namesace</f>
         <v>kubectl create ns todoapp</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>1</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="20">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="25" t="str">
+      <c r="C12" s="22" t="str">
         <f>"kubectl apply -f database-pvc.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f database-pvc.yaml -n todoapp</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <v>2</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="20">
+        <v>2</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="22" t="str">
         <f>"kubectl apply -f database-deployment.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f database-deployment.yaml -n todoapp</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="20">
         <v>3</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="25" t="str">
+      <c r="C14" s="22" t="str">
         <f>"kubectl apply -f database-service.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f database-service.yaml -n todoapp</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <v>1</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="20">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="24" t="str">
+      <c r="C17" s="21" t="str">
         <f>"kubectl apply -f backend-env-configmap.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f backend-env-configmap.yaml -n todoapp</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <v>2</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="20">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="25" t="str">
+      <c r="C18" s="22" t="str">
         <f>"kubectl apply -f backend-deployment.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f backend-deployment.yaml -n todoapp</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="A19" s="20">
         <v>3</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="25" t="str">
+      <c r="C19" s="22" t="str">
         <f>"kubectl apply -f backend-service.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f backend-service.yaml -n todoapp</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <v>1</v>
-      </c>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="20">
+        <v>1</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="24" t="str">
+      <c r="C22" s="21" t="str">
         <f>"kubectl apply -f frontend-env-configmap.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f frontend-env-configmap.yaml -n todoapp</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="20">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="24" t="str">
+      <c r="C23" s="21" t="str">
         <f>"kubectl apply -f frontend-deployment.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f frontend-deployment.yaml -n todoapp</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="25" t="str">
+      <c r="C24" s="22" t="str">
         <f>"kubectl apply -f frontend-service.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f frontend-service.yaml -n todoapp</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <v>1</v>
-      </c>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="20">
+        <v>1</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <v>2</v>
-      </c>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="20">
+        <v>2</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>3</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>2</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>3</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="24" t="str">
+      <c r="C31" s="21" t="str">
         <f>"kubectl apply -f ingress.yaml -n "&amp;prd_app_namesace</f>
         <v>kubectl apply -f ingress.yaml -n todoapp</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
-        <v>3</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="24"/>
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
+        <v>4</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1339,15 +1385,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EB6269-A009-C44B-BEE8-643A96FAB76F}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="C21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="137.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="123.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1383,11 +1429,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1425,11 +1471,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1537,11 +1583,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -1591,11 +1637,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -1645,11 +1691,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -1729,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>7</v>
       </c>
@@ -1788,11 +1834,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
